--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_36_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_36_5.xlsx
@@ -518,1321 +518,1321 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_5</t>
+          <t>model_36_5_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999919059895068</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991217777944615</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999812146829365</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999375377847433</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999761395810212</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G2" t="n">
-        <v>7.555403509368762e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008197818793706412</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I2" t="n">
-        <v>1.850099947615292e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>1.226920748273152e-05</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K2" t="n">
-        <v>1.53849953008822e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002542602935808313</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002748709426143252</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000006698491443</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002865727677027091</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P2" t="n">
-        <v>129.5864951081738</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q2" t="n">
-        <v>194.1869138261884</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_6</t>
+          <t>model_36_5_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999924657291912</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991216942637051</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999808428739775</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999406432503382</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999763284765418</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G3" t="n">
-        <v>7.032911083694352e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008198598516652656</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I3" t="n">
-        <v>1.886718107066255e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>1.165921307958233e-05</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K3" t="n">
-        <v>1.526319707512244e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002433665555967206</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002651963627898081</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N3" t="n">
-        <v>1.0000062352586</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002764863209859213</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P3" t="n">
-        <v>129.7298196868925</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3302384049071</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_4</t>
+          <t>model_36_5_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999912248028602</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991216823363581</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999815819766237</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999343549792757</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999759356671438</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G4" t="n">
-        <v>8.191261343379009e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008198709853200393</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I4" t="n">
-        <v>1.81392648143684e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>1.289439345311655e-05</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K4" t="n">
-        <v>1.551647723535543e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002657595775614417</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002862037970289529</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000007262232116</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002983880851920103</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P4" t="n">
-        <v>129.4248853235541</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q4" t="n">
-        <v>194.0253040415687</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_7</t>
+          <t>model_36_5_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999929425500591</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991212328568617</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999805792641994</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999943495738951</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999976561639596</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G5" t="n">
-        <v>6.587819733561195e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008202905547001204</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I5" t="n">
-        <v>1.912680108932605e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>1.109890995089695e-05</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K5" t="n">
-        <v>1.51128555201115e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002335245850841091</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002566674839858215</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000005840648227</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00267594350154036</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P5" t="n">
-        <v>129.8605762177413</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q5" t="n">
-        <v>194.460994935756</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_3</t>
+          <t>model_36_5_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999904329064903</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991209018236703</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999821296638639</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999313558060475</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999758965679411</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G6" t="n">
-        <v>8.930461844456099e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008205995596536606</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I6" t="n">
-        <v>1.759986687346202e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>1.34835092643789e-05</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K6" t="n">
-        <v>1.554168806892046e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002775653681323878</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002988387833674889</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000007917594629</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003115609690570053</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P6" t="n">
-        <v>129.2520848922181</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.8525036102327</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_8</t>
+          <t>model_36_5_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999993318982123</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991206914528042</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999802779317526</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999460089106909</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999767137862805</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G7" t="n">
-        <v>6.236436925382983e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008207959316228767</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I7" t="n">
-        <v>1.942357284042823e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>1.060525750216054e-05</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K7" t="n">
-        <v>1.501475263145305e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002241862489821796</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002497285911821669</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000005529118243</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002603600543182415</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P7" t="n">
-        <v>129.9702030884326</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q7" t="n">
-        <v>194.5706218064472</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_9</t>
+          <t>model_36_5_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999993661419509</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991196450248689</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999802033618311</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999948095257904</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999769743932553</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G8" t="n">
-        <v>5.916786656844058e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008217727261675472</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I8" t="n">
-        <v>1.949701413894772e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>1.019544451786977e-05</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K8" t="n">
-        <v>1.484671546976473e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002150607260429307</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00243244458453714</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000005245721786</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002535998786355332</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P8" t="n">
-        <v>130.0754341017732</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q8" t="n">
-        <v>194.6758528197878</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_2</t>
+          <t>model_36_5_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999895334159641</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991189979670091</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999830667313333</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999928942265138</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999762445893617</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G9" t="n">
-        <v>9.770096767622598e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008223767262772088</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I9" t="n">
-        <v>1.667698201065537e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>1.395759162066936e-05</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K9" t="n">
-        <v>1.531728681566237e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002889248254564262</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003125715400931857</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000008662000581</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003258783576672403</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P9" t="n">
-        <v>129.0723683747827</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q9" t="n">
-        <v>193.6727870927973</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_10</t>
+          <t>model_36_5_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999939081206428</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C10" t="n">
-        <v>0.999118839450302</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999799898056714</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999496603262491</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999770509514245</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G10" t="n">
-        <v>5.686501977347582e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008225246946651738</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I10" t="n">
-        <v>1.97073381056067e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>9.888024293158059e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K10" t="n">
-        <v>1.479735141308527e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002071157510107799</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00238463875195963</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00000504155533</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002486157760513282</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P10" t="n">
-        <v>130.1548305311906</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q10" t="n">
-        <v>194.7552492492053</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_11</t>
+          <t>model_36_5_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999940896194217</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991180935691482</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999797263312349</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999950786633907</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999770207787944</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G11" t="n">
-        <v>5.51708083413289e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008232209419818955</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I11" t="n">
-        <v>1.996682483111093e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>9.666788105991505e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K11" t="n">
-        <v>1.481680646855122e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001997538364686302</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002348846702986998</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000004891349444</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002448841969916129</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P11" t="n">
-        <v>130.2153233439074</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.815742061922</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_12</t>
+          <t>model_36_5_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999942097189821</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991174613104759</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999793808966259</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999515709789832</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999768764370944</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G12" t="n">
-        <v>5.404973166239801e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008238111276996011</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I12" t="n">
-        <v>2.030703125391965e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>9.512722284959374e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K12" t="n">
-        <v>1.490987676943951e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001931396728808075</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002324859816470619</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000004791956705</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002423833911981048</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P12" t="n">
-        <v>130.2563821430068</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.8568008610214</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_13</t>
+          <t>model_36_5_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999942950580503</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991168362691802</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999790672094619</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999519404680758</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999766931513435</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G13" t="n">
-        <v>5.325312892085226e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008243945763128296</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I13" t="n">
-        <v>2.061597073233588e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>9.440144994493364e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K13" t="n">
-        <v>1.502805786341462e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001868241582595805</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002307663946957014</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000004721331269</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002405905978701892</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P13" t="n">
-        <v>130.286078178036</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.8864968960506</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_1</t>
+          <t>model_36_5_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999884703111709</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991160583182078</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999842598422616</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999272111949455</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999768921054707</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G14" t="n">
-        <v>1.076245842715874e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008251207593975409</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I14" t="n">
-        <v>1.550192893143094e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>1.429761893589392e-05</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K14" t="n">
-        <v>1.489977393366243e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003011459397529486</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003280618604342593</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000009541811445</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003420281330146171</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P14" t="n">
-        <v>128.8788931019347</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q14" t="n">
-        <v>193.4793118199493</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_14</t>
+          <t>model_36_5_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999994380309384</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991159746429487</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999789235389221</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999521264472057</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999766117568749</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G15" t="n">
-        <v>5.245734514058275e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008251988665790177</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I15" t="n">
-        <v>2.075746680464014e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>9.403613844862767e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K15" t="n">
-        <v>1.508054032475145e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001807486218335594</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00229035685299437</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000004650778441</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002387862085918634</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P15" t="n">
-        <v>130.3161905702179</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.9166092882325</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_15</t>
+          <t>model_36_5_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999994422186227</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991152954368563</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999786648204615</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999522051368218</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999764256350571</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G16" t="n">
-        <v>5.206644319301039e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008258328756525227</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I16" t="n">
-        <v>2.101226953640658e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>9.388157152785167e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K16" t="n">
-        <v>1.520055009054313e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001752600565744281</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002281807248498663</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000004616121743</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002378948507059423</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P16" t="n">
-        <v>130.3311499885954</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.9315687066101</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_16</t>
+          <t>model_36_5_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999944569167772</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991145719497412</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999784767387117</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999521292031056</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999762709517334</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G17" t="n">
-        <v>5.174224875202638e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008265082191171419</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I17" t="n">
-        <v>2.119750465089654e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>9.403072514260943e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K17" t="n">
-        <v>1.530028858257874e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001700204420316476</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002274692259450196</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000004587379219</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002371530618197106</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P17" t="n">
-        <v>130.3436420252018</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q17" t="n">
-        <v>194.9440607432164</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_17</t>
+          <t>model_36_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999994469023797</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991139561283536</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999782499274523</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999519742042589</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999760731865547</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G18" t="n">
-        <v>5.162923503768423e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008270830613509318</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I18" t="n">
-        <v>2.142088309990168e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>9.433518328623306e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K18" t="n">
-        <v>1.542780588844661e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000165410229860778</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002272206747584476</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000004577359616</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002368939292945543</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P18" t="n">
-        <v>130.348015136827</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q18" t="n">
-        <v>194.9484338548417</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_18</t>
+          <t>model_36_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999944885817174</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991132683764609</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999781212959942</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999518305819856</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999759540120468</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G19" t="n">
-        <v>5.144667043554572e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008277250475540193</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I19" t="n">
-        <v>2.154756770853792e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>9.461729487387276e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K19" t="n">
-        <v>1.55046485979626e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001609145997541636</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002268185848548256</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000004561173751</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002364747215912942</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P19" t="n">
-        <v>130.355099810678</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q19" t="n">
-        <v>194.9555185286926</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_19</t>
+          <t>model_36_5_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999944897220454</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991127141303346</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999779470010943</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999516418121368</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.999975792148677</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G20" t="n">
-        <v>5.14360259732364e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008282424119842932</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I20" t="n">
-        <v>2.171922463820491e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>9.498808806946162e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K20" t="n">
-        <v>1.560901672257554e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001569028914701697</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002267951189360926</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000004560230031</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002364502566798197</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P20" t="n">
-        <v>130.3555136591761</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q20" t="n">
-        <v>194.9559323771907</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_20</t>
+          <t>model_36_5_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999944910210167</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991121519016805</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999977815386407</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999514560218082</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999756626829681</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G21" t="n">
-        <v>5.142390064709841e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008287672277539267</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I21" t="n">
-        <v>2.184884732454007e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>9.535302871076706e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K21" t="n">
-        <v>1.569249511104911e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000153407725616696</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002267683854665337</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000004559155021</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002364223851111157</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P21" t="n">
-        <v>130.3559851868776</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.9564039048922</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_0</t>
+          <t>model_36_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999871925600394</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991117189153249</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999857523546165</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999264886944049</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.999977921899674</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G22" t="n">
-        <v>1.195518302160063e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008291714015109258</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403200589510445e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>1.44395368778488e-05</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K22" t="n">
-        <v>1.423577138647662e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003153669228473264</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003457626790386816</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000010599260657</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003604825121127755</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P22" t="n">
-        <v>128.6686912959232</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.2691100139378</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_21</t>
+          <t>model_36_5_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999944892728045</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991116222373957</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999977697106273</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999512767205059</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999755456921448</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G23" t="n">
-        <v>5.144021943942667e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008292616461142452</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I23" t="n">
-        <v>2.196533727723721e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>9.570522321309259e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K23" t="n">
-        <v>1.576792979927323e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001508870933173667</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002268043638015518</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000004560601817</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O23" t="n">
-        <v>0.00236459895118341</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P23" t="n">
-        <v>130.3553506102166</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q23" t="n">
-        <v>194.9557693282312</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_22</t>
+          <t>model_36_5_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999944844815464</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991111496710716</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999775864421475</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999511000035682</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999754337608587</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G24" t="n">
-        <v>5.148494373224677e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000829702766034502</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I24" t="n">
-        <v>2.207432649049482e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>9.605234134915193e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K24" t="n">
-        <v>1.584010214092348e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001486015944320988</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002269029390119193</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000004564566996</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002365626668794926</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P24" t="n">
-        <v>130.3536124814925</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.9540311995071</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_36_5_23</t>
+          <t>model_36_5_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999944740479275</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991107337419888</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999774612660453</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999509310663736</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999975312358896</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G25" t="n">
-        <v>5.158233698447691e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008300910175761565</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I25" t="n">
-        <v>2.219760804037167e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>9.638417804186069e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K25" t="n">
-        <v>1.591838109432159e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001465793278919058</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M25" t="n">
-        <v>0.002271174519592823</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000004573201715</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O25" t="n">
-        <v>0.002367863120871279</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3498326871469</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q25" t="n">
-        <v>194.9502514051615</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999944614740819</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991103534424483</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999773365985681</v>
+        <v>0.9999869384351985</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999507923595226</v>
+        <v>0.9999163833054999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999751965928532</v>
+        <v>0.9999257379794876</v>
       </c>
       <c r="G26" t="n">
-        <v>5.169970831396956e-06</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008304460105039307</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I26" t="n">
-        <v>2.23203886632621e-05</v>
+        <v>1.686229051729702e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>9.665663445833236e-06</v>
+        <v>0.0001361276372068384</v>
       </c>
       <c r="K26" t="n">
-        <v>1.599302605454767e-05</v>
+        <v>6.890693304821259e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001447969799352695</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002273756986002892</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000004583607656</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O26" t="n">
-        <v>0.002370555528222867</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P26" t="n">
-        <v>130.345287022712</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.9457057407266</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
   </sheetData>
